--- a/evidencia big data.xlsx
+++ b/evidencia big data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utmedu-my.sharepoint.com/personal/al03088785_tecmilenio_mx/Documents/TECMILENIO/Tareas 6to semestre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utmedu-my.sharepoint.com/personal/al03088785_tecmilenio_mx/Documents/TECMILENIO/tareas 5to semestre/Repositorios/DataIngestion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{3A01F0D1-F014-4140-9340-FC84EB091D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF8EB27C-7BF2-4925-85B3-43CF5340F21E}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="8_{3A01F0D1-F014-4140-9340-FC84EB091D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B7CD765-DA2B-4986-B9EC-3E845B6FB527}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B246943F-D56E-4C23-B4C6-713B909E6E01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B246943F-D56E-4C23-B4C6-713B909E6E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +234,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -245,6 +249,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AFC9B4B2-1C20-455D-9E1E-AB6437FC6FC5}" name="Tabla1" displayName="Tabla1" ref="A2:N11" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:N11" xr:uid="{AFC9B4B2-1C20-455D-9E1E-AB6437FC6FC5}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{22AEB034-16F2-4793-9BCF-E650C86BA6BD}" name="Nombre tirador"/>
+    <tableColumn id="2" xr3:uid="{40066034-6F0A-4D92-AD15-4A17778F8437}" name="Edad"/>
+    <tableColumn id="3" xr3:uid="{B99AA3A3-590C-48F3-94D2-8E41502E40F3}" name="Experiencia"/>
+    <tableColumn id="4" xr3:uid="{CD74179E-C661-4407-9986-BA95D33F0095}" name="Distancia de tiro "/>
+    <tableColumn id="5" xr3:uid="{C11CFCB0-9BD5-48DA-8CDF-C2EE53D4C34C}" name="Angulo "/>
+    <tableColumn id="6" xr3:uid="{4F2C4352-0FF7-4AFD-80A7-C33A7DE7E2F4}" name="Altura de tirador"/>
+    <tableColumn id="7" xr3:uid="{6C6A138F-A73F-46C8-BE4A-B0C676077A6C}" name="Peso "/>
+    <tableColumn id="8" xr3:uid="{AA0AFC79-ADCA-4CC3-8309-46B60210029F}" name="Ambiente"/>
+    <tableColumn id="9" xr3:uid="{A7CE494F-00F3-4602-B36B-3A5E992D27CB}" name="Genero"/>
+    <tableColumn id="10" xr3:uid="{34EA8D6C-B0AE-427D-AB8F-7634AB22625E}" name="Peso del balon"/>
+    <tableColumn id="11" xr3:uid="{1CBA9CE9-0D9B-46AF-9405-FD425E78A80F}" name="Tiempo de tiro"/>
+    <tableColumn id="12" xr3:uid="{921D187B-4A4A-4817-A169-220944A1D1FC}" name="Tiro exitoso?"/>
+    <tableColumn id="13" xr3:uid="{12DBE661-9A0A-4D23-B747-9ED754FC5043}" name="Diestro / zurdo"/>
+    <tableColumn id="14" xr3:uid="{89995A09-25F8-45C0-9C33-5A896C054CE7}" name="Calibre de balon"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -567,21 +594,27 @@
   <dimension ref="A2:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -625,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -669,7 +702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -713,7 +746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -757,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -801,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -845,7 +878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -889,7 +922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -933,7 +966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -979,5 +1012,14 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{030e951d-6efd-42f5-8427-bab632cf8010}" enabled="0" method="" siteId="{030e951d-6efd-42f5-8427-bab632cf8010}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/evidencia big data.xlsx
+++ b/evidencia big data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utmedu-my.sharepoint.com/personal/al03088785_tecmilenio_mx/Documents/TECMILENIO/Tareas 6to semestre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://utmedu-my.sharepoint.com/personal/al03088785_tecmilenio_mx/Documents/TECMILENIO/tareas 5to semestre/Repositorios/DataIngestion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{3A01F0D1-F014-4140-9340-FC84EB091D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF8EB27C-7BF2-4925-85B3-43CF5340F21E}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{3A01F0D1-F014-4140-9340-FC84EB091D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5D41C81-340C-4E15-BBDC-F02DFA5DD62B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B246943F-D56E-4C23-B4C6-713B909E6E01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B246943F-D56E-4C23-B4C6-713B909E6E01}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Nombre tirador</t>
   </si>
@@ -83,30 +83,15 @@
     <t>Norberto</t>
   </si>
   <si>
-    <t>4 años</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 metros </t>
-  </si>
-  <si>
     <t>90 grados</t>
   </si>
   <si>
-    <t>95 kg</t>
-  </si>
-  <si>
     <t>Ventoso</t>
   </si>
   <si>
     <t>Masculino</t>
   </si>
   <si>
-    <t>500 g</t>
-  </si>
-  <si>
-    <t>1 segundo</t>
-  </si>
-  <si>
     <t>2 de 6</t>
   </si>
   <si>
@@ -116,86 +101,44 @@
     <t xml:space="preserve">Jaob </t>
   </si>
   <si>
-    <t>0 años</t>
-  </si>
-  <si>
-    <t>5 metros</t>
-  </si>
-  <si>
     <t xml:space="preserve">90 grados </t>
   </si>
   <si>
-    <t>86 kg</t>
-  </si>
-  <si>
-    <t>2 segundos</t>
-  </si>
-  <si>
     <t>0 de 6</t>
   </si>
   <si>
     <t>Hilary</t>
   </si>
   <si>
-    <t>3 metros</t>
-  </si>
-  <si>
-    <t>50 kg</t>
-  </si>
-  <si>
     <t>Femenino</t>
   </si>
   <si>
-    <t xml:space="preserve">1 segundo </t>
-  </si>
-  <si>
     <t>1 de 6</t>
   </si>
   <si>
     <t>Orlando</t>
   </si>
   <si>
-    <t>69 kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Josué </t>
   </si>
   <si>
-    <t>50kg</t>
-  </si>
-  <si>
     <t>Valentino</t>
   </si>
   <si>
-    <t>10 años</t>
-  </si>
-  <si>
-    <t>88 kg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diestro </t>
   </si>
   <si>
     <t>Diego</t>
   </si>
   <si>
-    <t>58 kg</t>
-  </si>
-  <si>
     <t>David</t>
-  </si>
-  <si>
-    <t>71 kg</t>
-  </si>
-  <si>
-    <t>2 segundo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +177,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -245,6 +192,2053 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Registro de tiros</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8556834020553537E-2"/>
+          <c:y val="9.6877896045315812E-2"/>
+          <c:w val="0.89764967263142481"/>
+          <c:h val="0.5360361244723667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Norberto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Edad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distancia de tiro </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Angulo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Altura de tirador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peso </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Genero</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peso del balon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tiempo de tiro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tiro exitoso?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diestro / zurdo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Calibre de balon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$3:$N$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="d\-mmm">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D073-45C0-A55F-5D91E622B26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Jaob </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Edad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distancia de tiro </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Angulo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Altura de tirador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peso </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Genero</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peso del balon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tiempo de tiro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tiro exitoso?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diestro / zurdo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Calibre de balon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$4:$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D073-45C0-A55F-5D91E622B26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hilary</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Edad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distancia de tiro </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Angulo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Altura de tirador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peso </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Genero</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peso del balon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tiempo de tiro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tiro exitoso?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diestro / zurdo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Calibre de balon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D073-45C0-A55F-5D91E622B26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Orlando</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Edad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distancia de tiro </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Angulo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Altura de tirador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peso </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Genero</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peso del balon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tiempo de tiro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tiro exitoso?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diestro / zurdo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Calibre de balon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$6:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D073-45C0-A55F-5D91E622B26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Josué </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Edad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distancia de tiro </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Angulo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Altura de tirador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peso </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Genero</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peso del balon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tiempo de tiro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tiro exitoso?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diestro / zurdo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Calibre de balon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D073-45C0-A55F-5D91E622B26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Valentino</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Edad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distancia de tiro </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Angulo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Altura de tirador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peso </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Genero</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peso del balon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tiempo de tiro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tiro exitoso?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diestro / zurdo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Calibre de balon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D073-45C0-A55F-5D91E622B26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diego</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Edad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distancia de tiro </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Angulo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Altura de tirador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peso </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Genero</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peso del balon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tiempo de tiro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tiro exitoso?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diestro / zurdo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Calibre de balon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$10:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D073-45C0-A55F-5D91E622B26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>David</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$B$2:$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Edad</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Experiencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distancia de tiro </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Angulo </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Altura de tirador</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Peso </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ambiente</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Genero</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Peso del balon</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Tiempo de tiro</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Tiro exitoso?</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diestro / zurdo</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Calibre de balon</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D073-45C0-A55F-5D91E622B26D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1225152879"/>
+        <c:axId val="1302067215"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$A$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$2:$N$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="13"/>
+                      <c:pt idx="0">
+                        <c:v>Edad</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Experiencia</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Distancia de tiro </c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Angulo </c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Altura de tirador</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Peso </c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Ambiente</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Genero</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Peso del balon</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Tiempo de tiro</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>Tiro exitoso?</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>Diestro / zurdo</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>Calibre de balon</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Hoja1!$B$9:$N$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="13"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-D073-45C0-A55F-5D91E622B26D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1225152879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1302067215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1302067215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1225152879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>162484</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393ADF56-324E-FA61-7875-3DDAB98E1EDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B2DA8AD5-AC9C-4372-8D1D-44F339AD59DE}" name="Tabla1" displayName="Tabla1" ref="A2:N11" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:N11" xr:uid="{B2DA8AD5-AC9C-4372-8D1D-44F339AD59DE}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{8F9D0019-DE26-4B32-837F-84E70DF7B7BA}" name="Nombre tirador"/>
+    <tableColumn id="2" xr3:uid="{CDE1266E-4D88-4D44-86A5-7DF1C96F1511}" name="Edad"/>
+    <tableColumn id="3" xr3:uid="{AC6BB048-F905-44D5-ACE1-825F89D0F493}" name="Experiencia"/>
+    <tableColumn id="4" xr3:uid="{F29BEC81-AFDF-441C-9298-0E38CE7C8C4D}" name="Distancia de tiro "/>
+    <tableColumn id="5" xr3:uid="{E7F6948B-9255-4A61-BFEB-902568918EC6}" name="Angulo "/>
+    <tableColumn id="6" xr3:uid="{10599FC6-564E-4AA0-B81C-311E30A8A6D0}" name="Altura de tirador"/>
+    <tableColumn id="7" xr3:uid="{8B4C7AA9-8126-4CA0-9AB1-52893C8C9D7E}" name="Peso "/>
+    <tableColumn id="8" xr3:uid="{65D537C4-1F7C-4911-BCC2-1F3409070197}" name="Ambiente"/>
+    <tableColumn id="9" xr3:uid="{DC461E8F-B97B-4151-B5E1-2B38A3A578C6}" name="Genero"/>
+    <tableColumn id="10" xr3:uid="{2BC01CBD-4AF2-4052-9337-E08CE79FB885}" name="Peso del balon"/>
+    <tableColumn id="11" xr3:uid="{1937BD0D-4A0A-410E-8031-37C5D9536150}" name="Tiempo de tiro"/>
+    <tableColumn id="12" xr3:uid="{ADE8026D-E125-4601-BA8F-5B685D8DF67D}" name="Tiro exitoso?"/>
+    <tableColumn id="13" xr3:uid="{B4CC41D3-C88F-4520-A9EF-81D681EF208A}" name="Diestro / zurdo"/>
+    <tableColumn id="14" xr3:uid="{0A575D2C-60E5-4547-A571-B3FF865DD814}" name="Calibre de balon"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -566,22 +2560,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94564AB-54FB-43EA-9698-4D4B4C618046}">
   <dimension ref="A2:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -625,353 +2622,353 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
       </c>
       <c r="F3">
         <v>1.7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3">
+        <v>95</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
         <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
       </c>
       <c r="N3">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>1.7</v>
       </c>
-      <c r="G4" t="s">
-        <v>29</v>
+      <c r="G4">
+        <v>86</v>
       </c>
       <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
         <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
       </c>
       <c r="N4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>1.55</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
+      <c r="G5">
+        <v>50</v>
       </c>
       <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5">
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" t="s">
         <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" t="s">
-        <v>24</v>
       </c>
       <c r="N5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>1.67</v>
       </c>
-      <c r="G6" t="s">
-        <v>39</v>
+      <c r="G6">
+        <v>69</v>
       </c>
       <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
+        <v>0.5</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
         <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>24</v>
       </c>
       <c r="N6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F7">
         <v>1.7</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
+      <c r="G7">
+        <v>50</v>
       </c>
       <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>0.5</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
         <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>24</v>
       </c>
       <c r="N7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>1.85</v>
       </c>
-      <c r="G8" t="s">
-        <v>44</v>
+      <c r="G8">
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>30</v>
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>0.5</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
       </c>
       <c r="F10">
         <v>1.68</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
+      <c r="G10">
+        <v>58</v>
       </c>
       <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
         <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" t="s">
-        <v>24</v>
       </c>
       <c r="N10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F11">
         <v>1.7</v>
       </c>
-      <c r="G11" t="s">
-        <v>49</v>
+      <c r="G11">
+        <v>71</v>
       </c>
       <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
         <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-      <c r="L11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
       </c>
       <c r="N11">
         <v>6</v>
@@ -979,5 +2976,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>